--- a/config/normalconfig/daily.xlsx
+++ b/config/normalconfig/daily.xlsx
@@ -2,137 +2,112 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaobinzhou\AppData\Local\princekinConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaobinzhou\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="14175" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
     <sheet name="performance" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+  <si>
+    <t>系统版本</t>
+  </si>
+  <si>
+    <t>测试日期</t>
+  </si>
+  <si>
+    <t>测试设备通过数/总数</t>
+  </si>
+  <si>
+    <t>测试通过率</t>
+  </si>
+  <si>
+    <t>测试内容</t>
+  </si>
+  <si>
+    <t>设备</t>
+  </si>
+  <si>
+    <t>流量(M)</t>
+  </si>
+  <si>
+    <t>电池温度(℃)</t>
+  </si>
+  <si>
+    <t>CPU温度(℃)</t>
+  </si>
+  <si>
+    <t>平均值</t>
+  </si>
+  <si>
+    <t>最小</t>
+  </si>
+  <si>
+    <t>最大</t>
+  </si>
+  <si>
+    <t>内存(M)</t>
+  </si>
+  <si>
+    <t>CPU(%)</t>
+  </si>
+  <si>
+    <t>WIFI</t>
+  </si>
+  <si>
+    <t>数据流量</t>
+  </si>
+  <si>
+    <t>APP名称</t>
+  </si>
+  <si>
+    <t>APP版本</t>
+  </si>
   <si>
     <t>手机型号</t>
   </si>
   <si>
-    <t>系统版本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试设备通过数/总数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试通过率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备</t>
-  </si>
-  <si>
-    <t>流量(M)</t>
-  </si>
-  <si>
-    <t>电池温度(℃)</t>
-  </si>
-  <si>
-    <t>CPU温度(℃)</t>
-  </si>
-  <si>
-    <t>平均值</t>
-  </si>
-  <si>
-    <t>最小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存(M)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WIFI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据流量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP版本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机型号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Crash</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  详细信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开始时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>结束时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>详情</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>运行结果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>测试平台</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>测试时长</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +128,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -333,7 +301,7 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -348,16 +316,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -367,13 +335,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -383,36 +351,8 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -711,7 +651,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -729,36 +668,36 @@
     <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12"/>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -771,31 +710,31 @@
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +742,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:I3"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -822,83 +761,83 @@
     <col min="3" max="4" width="12.125" style="5" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="5" customWidth="1"/>
-    <col min="7" max="15" width="9" style="5"/>
+    <col min="7" max="15" width="9" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
       <c r="N1" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -911,6 +850,5 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>